--- a/results/better results/resultscount2.xlsx
+++ b/results/better results/resultscount2.xlsx
@@ -1,22 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B1AEA-30A1-4BC6-B26B-6D8D717E80DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="count" sheetId="2" r:id="rId2"/>
-    <sheet name="count dev" sheetId="3" r:id="rId3"/>
+    <sheet name="count_dev" sheetId="3" r:id="rId3"/>
+    <sheet name="gemiddeld" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="21">
   <si>
     <t>fitness</t>
   </si>
@@ -68,12 +83,24 @@
   <si>
     <t>dev bound</t>
   </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>count_dev</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,15 +133,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -156,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +223,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,6 +275,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,27 +468,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.164739833380401</v>
+        <v>0.16473983338040099</v>
+      </c>
+      <c r="C2">
+        <f>2*A2*B2/(A2+B2)</f>
+        <v>0.28287833670508178</v>
       </c>
     </row>
   </sheetData>
@@ -426,14 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -473,8 +555,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -494,25 +579,29 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>77.90744590759277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>71.450934648513794</v>
+      </c>
+      <c r="N2">
+        <f>2*F2*G2/(F2+G2)</f>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -532,25 +621,29 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>80.32059335708618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>77.292137145996094</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N17" si="0">2*F3*G3/(F3+G3)</f>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -570,25 +663,29 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13976</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>68.17168784141541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>72.642788887023926</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -608,25 +705,29 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>69.5456109046936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>71.392171621322632</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -646,25 +747,29 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>67.82396531105042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>68.965071678161621</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -684,25 +789,29 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>74.42754435539246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>77.122559070587158</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -722,25 +831,29 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>69.77092742919922</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>68.598071575164795</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -760,25 +873,29 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14105</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>75.46756482124329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>74.752798080444336</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -798,25 +915,29 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>67.34537315368652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>69.209994316101074</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -836,25 +957,29 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>68.70571136474609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>78.43721342086792</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -874,25 +999,29 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>68.09943246841431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>71.439455270767212</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -912,25 +1041,29 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>76.12419080734253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>72.922160148620605</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -950,25 +1083,29 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>67.9024670124054</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>98.999091863632202</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -988,25 +1125,29 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>74.24765372276306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>80.88971471786499</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1026,25 +1167,29 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2816395691289789</v>
+        <v>0.26769450720135562</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>67.65469169616699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>68.070987462997437</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>0.42233283441818381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1064,25 +1209,29 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2816395691289789</v>
+        <v>0.26769450720135562</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>74.22799229621887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>75.415122032165527</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>0.42233283441818381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1105,25 +1254,25 @@
         <v>-1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>100.0341444015503</v>
+        <v>100.0466349124908</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1146,25 +1295,25 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19">
-        <v>100.0278124809265</v>
+        <v>100.0390419960022</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1187,25 +1336,25 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20">
-        <v>100.0445861816406</v>
+        <v>100.03191876411439</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1228,25 +1377,25 @@
         <v>-1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21">
-        <v>100.0348269939423</v>
+        <v>100.0255601406097</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1269,25 +1418,25 @@
         <v>-1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22">
-        <v>100.0328557491302</v>
+        <v>100.02940940856929</v>
       </c>
       <c r="M22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1310,25 +1459,25 @@
         <v>-1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L23">
-        <v>100.0370433330536</v>
+        <v>100.0350587368011</v>
       </c>
       <c r="M23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1351,25 +1500,25 @@
         <v>-1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L24">
-        <v>100.0348381996155</v>
+        <v>100.0396511554718</v>
       </c>
       <c r="M24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1392,25 +1541,25 @@
         <v>-1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25">
-        <v>100.0322389602661</v>
+        <v>100.03602957725521</v>
       </c>
       <c r="M25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1433,25 +1582,25 @@
         <v>-1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>100.0339348316193</v>
+        <v>100.02993893623351</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1474,25 +1623,25 @@
         <v>-1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27">
-        <v>100.0309624671936</v>
+        <v>100.0547869205475</v>
       </c>
       <c r="M27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -1515,25 +1664,25 @@
         <v>-1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L28">
-        <v>100.0329155921936</v>
+        <v>100.035480260849</v>
       </c>
       <c r="M28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -1556,25 +1705,25 @@
         <v>-1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29">
-        <v>100.0315120220184</v>
+        <v>100.0372762680054</v>
       </c>
       <c r="M29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -1597,25 +1746,25 @@
         <v>-1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30">
-        <v>100.0451655387878</v>
+        <v>100.0352444648743</v>
       </c>
       <c r="M30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1638,25 +1787,25 @@
         <v>-1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L31">
-        <v>100.0467133522034</v>
+        <v>100.0385830402374</v>
       </c>
       <c r="M31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -1679,25 +1828,25 @@
         <v>-1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L32">
-        <v>100.0313959121704</v>
+        <v>100.0334978103638</v>
       </c>
       <c r="M32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1720,25 +1869,25 @@
         <v>-1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33">
-        <v>100.0314800739288</v>
+        <v>100.0354590415955</v>
       </c>
       <c r="M33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16</v>
       </c>
@@ -1761,25 +1910,25 @@
         <v>-1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L34">
-        <v>100.0623610019684</v>
+        <v>100.0257506370544</v>
       </c>
       <c r="M34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16</v>
       </c>
@@ -1802,25 +1951,25 @@
         <v>-1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35">
-        <v>100.0309834480286</v>
+        <v>100.05922961235051</v>
       </c>
       <c r="M35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16</v>
       </c>
@@ -1843,25 +1992,25 @@
         <v>-1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>100.0463020801544</v>
+        <v>100.0253355503082</v>
       </c>
       <c r="M36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1884,25 +2033,25 @@
         <v>-1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L37">
-        <v>100.0320353507996</v>
+        <v>100.0457873344421</v>
       </c>
       <c r="M37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1925,25 +2074,25 @@
         <v>-1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38">
-        <v>100.0323238372803</v>
+        <v>100.0332815647125</v>
       </c>
       <c r="M38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1966,25 +2115,25 @@
         <v>-1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L39">
-        <v>100.0431640148163</v>
+        <v>100.0364842414856</v>
       </c>
       <c r="M39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -2007,25 +2156,25 @@
         <v>-1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L40">
-        <v>100.03475522995</v>
+        <v>100.03807377815249</v>
       </c>
       <c r="M40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16</v>
       </c>
@@ -2048,25 +2197,25 @@
         <v>-1</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L41">
-        <v>100.032219171524</v>
+        <v>100.03617119789121</v>
       </c>
       <c r="M41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16</v>
       </c>
@@ -2089,25 +2238,25 @@
         <v>-1</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L42">
-        <v>100.0370347499847</v>
+        <v>100.03383636474609</v>
       </c>
       <c r="M42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -2130,25 +2279,25 @@
         <v>-1</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L43">
-        <v>100.0314614772797</v>
+        <v>100.0294425487518</v>
       </c>
       <c r="M43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16</v>
       </c>
@@ -2171,25 +2320,25 @@
         <v>-1</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L44">
-        <v>100.0332486629486</v>
+        <v>100.0383758544922</v>
       </c>
       <c r="M44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16</v>
       </c>
@@ -2212,25 +2361,25 @@
         <v>-1</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L45">
-        <v>100.0366494655609</v>
+        <v>100.034149646759</v>
       </c>
       <c r="M45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2253,25 +2402,25 @@
         <v>-1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L46">
-        <v>100.0329928398132</v>
+        <v>100.0433971881866</v>
       </c>
       <c r="M46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16</v>
       </c>
@@ -2294,25 +2443,25 @@
         <v>-1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L47">
-        <v>100.0362110137939</v>
+        <v>100.04020524024961</v>
       </c>
       <c r="M47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16</v>
       </c>
@@ -2335,25 +2484,25 @@
         <v>-1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L48">
-        <v>100.0335233211517</v>
+        <v>100.0388069152832</v>
       </c>
       <c r="M48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16</v>
       </c>
@@ -2376,19 +2525,19 @@
         <v>-1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L49">
-        <v>100.0366749763489</v>
+        <v>100.0378429889679</v>
       </c>
       <c r="M49" t="s">
         <v>15</v>
@@ -2400,14 +2549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2450,8 +2601,11 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2474,25 +2628,29 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.2676945072013556</v>
+        <v>0.27663089522733691</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14042</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>83.59561586380005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>78.331604242324829</v>
+      </c>
+      <c r="O2">
+        <f>2*G2*H2/(G2+H2)</f>
+        <v>0.43337646967736232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2515,25 +2673,29 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>86.21135139465332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>87.588973522186279</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O17" si="0">2*G3*H3/(G3+H3)</f>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2556,25 +2718,29 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>88.64688515663147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>82.478064298629761</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2597,25 +2763,29 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>83.11310935020447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>83.083649158477783</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2638,25 +2808,29 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>80.44631195068359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>81.157362937927246</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2679,25 +2853,29 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>90.55691289901733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>87.137574911117554</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2720,25 +2898,29 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>80.48075294494629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>81.193604230880737</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2761,25 +2943,29 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.3149887037560011</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>84.56078791618347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>79.036953449249268</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2802,25 +2988,29 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>81.63869476318359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>81.846873998641968</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2843,25 +3033,29 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14106</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>89.84478282928467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>87.383438348770142</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2884,25 +3078,29 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>84.05104041099548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>82.519601583480835</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2925,25 +3123,29 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>93.10334181785583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>88.059997081756592</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2966,25 +3168,29 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>82.37877607345581</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>79.055301189422607</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3007,25 +3213,29 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.2816395691289789</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>90.23844003677368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>91.603561878204346</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3048,25 +3258,29 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.2766308952273369</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13947</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>76.46081447601318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>79.461333990097046</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2</v>
       </c>
@@ -3089,25 +3303,29 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.2676945072013556</v>
+        <v>0.28163956912897892</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14080</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>86.53190517425537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>90.420013189315796</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.43949886678418543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3133,25 +3351,25 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M18">
-        <v>100.0342283248901</v>
+        <v>100.0381813049316</v>
       </c>
       <c r="N18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3177,25 +3395,25 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M19">
-        <v>100.0362150669098</v>
+        <v>100.0261089801788</v>
       </c>
       <c r="N19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3221,25 +3439,25 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M20">
-        <v>100.0326614379883</v>
+        <v>100.0480265617371</v>
       </c>
       <c r="N20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3265,25 +3483,25 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M21">
-        <v>100.0227603912354</v>
+        <v>100.0380046367645</v>
       </c>
       <c r="N21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -3309,25 +3527,25 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M22">
-        <v>100.0427358150482</v>
+        <v>100.0362560749054</v>
       </c>
       <c r="N22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>8</v>
       </c>
@@ -3353,25 +3571,25 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M23">
-        <v>100.0362837314606</v>
+        <v>100.0387823581696</v>
       </c>
       <c r="N23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>8</v>
       </c>
@@ -3397,25 +3615,25 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M24">
-        <v>100.0314476490021</v>
+        <v>100.03466558456419</v>
       </c>
       <c r="N24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3441,25 +3659,25 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M25">
-        <v>100.03497838974</v>
+        <v>100.05181574821469</v>
       </c>
       <c r="N25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>8</v>
       </c>
@@ -3485,25 +3703,25 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M26">
-        <v>100.0267245769501</v>
+        <v>100.0478947162628</v>
       </c>
       <c r="N26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -3529,25 +3747,25 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M27">
-        <v>100.0310695171356</v>
+        <v>100.04986476898191</v>
       </c>
       <c r="N27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -3573,25 +3791,25 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M28">
-        <v>100.046528339386</v>
+        <v>100.0370907783508</v>
       </c>
       <c r="N28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -3617,25 +3835,25 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M29">
-        <v>100.0455219745636</v>
+        <v>100.0359690189362</v>
       </c>
       <c r="N29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3661,25 +3879,25 @@
         <v>-1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M30">
-        <v>100.0467748641968</v>
+        <v>100.0354120731354</v>
       </c>
       <c r="N30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3705,25 +3923,25 @@
         <v>-1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M31">
-        <v>100.0157685279846</v>
+        <v>100.0367715358734</v>
       </c>
       <c r="N31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3749,25 +3967,25 @@
         <v>-1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M32">
-        <v>100.0313379764557</v>
+        <v>100.031352519989</v>
       </c>
       <c r="N32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3793,25 +4011,25 @@
         <v>-1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M33">
-        <v>100.0170392990112</v>
+        <v>100.0362050533295</v>
       </c>
       <c r="N33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>16</v>
       </c>
@@ -3837,25 +4055,25 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34">
-        <v>100.0465903282166</v>
+        <v>100.0361123085022</v>
       </c>
       <c r="N34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>16</v>
       </c>
@@ -3881,25 +4099,25 @@
         <v>-1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35">
-        <v>100.0317077636719</v>
+        <v>100.0350871086121</v>
       </c>
       <c r="N35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>16</v>
       </c>
@@ -3925,25 +4143,25 @@
         <v>-1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M36">
-        <v>100.0465235710144</v>
+        <v>100.04065942764279</v>
       </c>
       <c r="N36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
@@ -3969,25 +4187,25 @@
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M37">
-        <v>100.0445249080658</v>
+        <v>100.0368790626526</v>
       </c>
       <c r="N37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>16</v>
       </c>
@@ -4013,25 +4231,25 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M38">
-        <v>100.0312716960907</v>
+        <v>100.05012989044189</v>
       </c>
       <c r="N38" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16</v>
       </c>
@@ -4057,25 +4275,25 @@
         <v>-1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M39">
-        <v>100.0311806201935</v>
+        <v>100.03670120239261</v>
       </c>
       <c r="N39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>16</v>
       </c>
@@ -4101,25 +4319,25 @@
         <v>-1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M40">
-        <v>100.0335803031921</v>
+        <v>100.03840708732599</v>
       </c>
       <c r="N40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>16</v>
       </c>
@@ -4145,25 +4363,25 @@
         <v>-1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M41">
-        <v>100.0369181632996</v>
+        <v>100.0413484573364</v>
       </c>
       <c r="N41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>16</v>
       </c>
@@ -4189,25 +4407,25 @@
         <v>-1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42">
-        <v>100.0336337089539</v>
+        <v>100.0481884479523</v>
       </c>
       <c r="N42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>16</v>
       </c>
@@ -4233,25 +4451,25 @@
         <v>-1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M43">
-        <v>100.031546831131</v>
+        <v>100.0396625995636</v>
       </c>
       <c r="N43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16</v>
       </c>
@@ -4277,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M44">
-        <v>100.0345749855042</v>
+        <v>100.03536868095399</v>
       </c>
       <c r="N44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>16</v>
       </c>
@@ -4321,25 +4539,25 @@
         <v>-1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M45">
-        <v>100.0321583747864</v>
+        <v>100.0462975502014</v>
       </c>
       <c r="N45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>16</v>
       </c>
@@ -4365,25 +4583,25 @@
         <v>-1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M46">
-        <v>100.035046339035</v>
+        <v>100.0328280925751</v>
       </c>
       <c r="N46" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>16</v>
       </c>
@@ -4409,25 +4627,25 @@
         <v>-1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M47">
-        <v>100.0332612991333</v>
+        <v>100.0242626667023</v>
       </c>
       <c r="N47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>16</v>
       </c>
@@ -4453,25 +4671,25 @@
         <v>-1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M48">
-        <v>100.0326693058014</v>
+        <v>100.0276145935059</v>
       </c>
       <c r="N48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>16</v>
       </c>
@@ -4497,22 +4715,87 @@
         <v>-1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M49">
-        <v>100.0333096981049</v>
+        <v>100.0369136333466</v>
       </c>
       <c r="N49" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C728F097-C9FE-48DF-991D-5E327F89E362}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <f>SUM(count!J2:J17)/15</f>
+        <v>14951.333333333334</v>
+      </c>
+      <c r="C2">
+        <f>SUM(count_dev!K2:K17)/15</f>
+        <v>14955.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>SUM(count!N3:N18)/15</f>
+        <v>0.43721006246871841</v>
+      </c>
+      <c r="C3">
+        <f>SUM(count_dev!O3:O18)/15</f>
+        <v>0.43949886678418532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>SUM(count!L4:L19)/15</f>
+        <v>83.26285847028096</v>
+      </c>
+      <c r="C4">
+        <f>SUM(count_dev!M4:M19)/15</f>
+        <v>91.633441368738815</v>
       </c>
     </row>
   </sheetData>

--- a/results/better results/resultscount2.xlsx
+++ b/results/better results/resultscount2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B1AEA-30A1-4BC6-B26B-6D8D717E80DE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158DBB47-453F-4EB8-AA82-D3786E251F9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="21">
   <si>
     <t>fitness</t>
   </si>
@@ -4740,10 +4740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C728F097-C9FE-48DF-991D-5E327F89E362}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4764,12 +4764,12 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <f>SUM(count!J2:J17)/15</f>
-        <v>14951.333333333334</v>
+        <f>SUM(count!J2:J17)/16</f>
+        <v>14016.875</v>
       </c>
       <c r="C2">
-        <f>SUM(count_dev!K2:K17)/15</f>
-        <v>14955.8</v>
+        <f>SUM(count_dev!K2:K17)/16</f>
+        <v>14021.0625</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4777,12 +4777,12 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <f>SUM(count!N3:N18)/15</f>
-        <v>0.43721006246871841</v>
+        <f>SUM(count!N2:N17)/16</f>
+        <v>0.43735311273843513</v>
       </c>
       <c r="C3">
-        <f>SUM(count_dev!O3:O18)/15</f>
-        <v>0.43949886678418532</v>
+        <f>SUM(count_dev!O2:O17)/16</f>
+        <v>0.43911621696500891</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4790,12 +4790,38 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <f>SUM(count!L4:L19)/15</f>
-        <v>83.26285847028096</v>
+        <f>SUM(count!L2:L17)/16</f>
+        <v>74.850016996264458</v>
       </c>
       <c r="C4">
-        <f>SUM(count_dev!M4:M19)/15</f>
-        <v>91.633441368738815</v>
+        <f>SUM(count_dev!M2:M17)/16</f>
+        <v>83.772369250655174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>SUM(count!G2:G17)/16</f>
+        <v>0.27989643638802592</v>
+      </c>
+      <c r="C5">
+        <f>SUM(count_dev!H2:H17)/16</f>
+        <v>0.28132652701012623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>SUM(count!F2:F17)/16</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>SUM(count_dev!G2:G17)/16</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
